--- a/biology/Médecine/Calcedonio_Tropea_(médecin)/Calcedonio_Tropea_(médecin).xlsx
+++ b/biology/Médecine/Calcedonio_Tropea_(médecin)/Calcedonio_Tropea_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calcedonio_Tropea_(m%C3%A9decin)</t>
+          <t>Calcedonio_Tropea_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calcedonio Tropea est un médecin italien, actif à Naples en 1854[1] durant la troisième pandémie de choléra.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calcedonio Tropea est un médecin italien, actif à Naples en 1854 durant la troisième pandémie de choléra.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calcedonio_Tropea_(m%C3%A9decin)</t>
+          <t>Calcedonio_Tropea_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(it) Calcedonio Tropea, Patologia e terapia, medica speciale delle fiogosi degli organi pneuma-gastrici, Naples, 1857. (Compte-rendu dans Il Severino, vol. XIX, 1858, p. 366.)
 (it) Calcedonio Tropea, Patologia e terapia medica speciale delle malattie degli organi digerati…, Naples, 1883, 214 p. (Fiche sur la Biblioteca Digitale Italiana)
